--- a/r5-AGES-MedicinalProduct-review/StructureDefinition-at-medprod-administrableProductDefinition.xlsx
+++ b/r5-AGES-MedicinalProduct-review/StructureDefinition-at-medprod-administrableProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-23T11:14:51+00:00</t>
+    <t>2024-05-23T12:15:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-AGES-MedicinalProduct-review/StructureDefinition-at-medprod-administrableProductDefinition.xlsx
+++ b/r5-AGES-MedicinalProduct-review/StructureDefinition-at-medprod-administrableProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-23T12:15:30+00:00</t>
+    <t>2024-05-23T12:44:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -907,7 +907,7 @@
     <t>AdministrableProductDefinition.routeOfAdministration</t>
   </si>
   <si>
-    <t>The path by which the product is taken into or makes contact with the body</t>
+    <t>Route of administration</t>
   </si>
   <si>
     <t>The path by which the product is taken into or makes contact with the body. In some regions this is referred to as the licenced or approved route. RouteOfAdministration cannot be used when the 'formOf' product already uses MedicinalProductDefinition.route (and vice versa).</t>

--- a/r5-AGES-MedicinalProduct-review/StructureDefinition-at-medprod-administrableProductDefinition.xlsx
+++ b/r5-AGES-MedicinalProduct-review/StructureDefinition-at-medprod-administrableProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-23T12:44:01+00:00</t>
+    <t>2024-05-23T12:55:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-AGES-MedicinalProduct-review/StructureDefinition-at-medprod-administrableProductDefinition.xlsx
+++ b/r5-AGES-MedicinalProduct-review/StructureDefinition-at-medprod-administrableProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-23T12:55:33+00:00</t>
+    <t>2024-05-24T07:08:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
